--- a/data/processed/processed_table.xlsx
+++ b/data/processed/processed_table.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://musigma-my.sharepoint.com/personal/vignesh_nehru_mu-sigma_com/Documents/Documents/walmart/re_greco/data/processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_23F9F91D05CBE655F43D34D93011606D669C915E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFA535D8-2957-4226-AA4D-E707143E6B27}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -79,12 +85,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,9 +130,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -138,24 +142,117 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{524AD693-D559-4ECC-82A3-820AAF338DEB}" name="Table1" displayName="Table1" ref="A1:K46" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:K46" xr:uid="{524AD693-D559-4ECC-82A3-820AAF338DEB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1004"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{79D497E8-4ED1-450C-A89C-FB9A1C1AB66E}" name="entrp_ptnt_id"/>
+    <tableColumn id="2" xr3:uid="{5AA6C62D-1D4C-46D0-AF29-2CFD8453978B}" name="store_nbr"/>
+    <tableColumn id="3" xr3:uid="{0EBB0506-EC5B-4613-AFA1-3393BDA00DBE}" name="sale_dt" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2AC1A9EB-567B-4DA2-A848-51C71AA96746}" name="status"/>
+    <tableColumn id="5" xr3:uid="{E5DACA11-E82F-477F-B56E-D7C4E96D8E61}" name="recent_status"/>
+    <tableColumn id="6" xr3:uid="{9654EADC-48A9-4C10-8132-F0AEAB9187B2}" name="prev_purchase_date" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D52BB007-09B4-4907-A5EF-435416C536E6}" name="days_since_prev_purchase"/>
+    <tableColumn id="8" xr3:uid="{CE041900-FD61-4534-BDF2-23116898AC34}" name="transition_dt" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{0D769464-CA32-4EF6-80B8-6823870A291D}" name="eff_dt" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{AE1239A5-EE42-4E44-A015-C440DDA6E31D}" name="prev_store_nbr"/>
+    <tableColumn id="11" xr3:uid="{A9571F61-0DA8-4098-AA43-67B144E5B06E}" name="sale_date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +290,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +359,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,53 +535,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>42736</v>
       </c>
       <c r="D2" t="s">
@@ -500,18 +613,18 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>42736</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>43831</v>
       </c>
       <c r="D3" t="s">
@@ -520,33 +633,33 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>42736</v>
       </c>
       <c r="G3">
         <v>1095</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>43831</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>43831</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4">
         <v>101</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>43941</v>
       </c>
       <c r="D4" t="s">
@@ -555,33 +668,33 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>43831</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>43941</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>43941</v>
       </c>
       <c r="J4">
         <v>101</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>43941</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5">
         <v>102</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>43942</v>
       </c>
       <c r="D5" t="s">
@@ -590,7 +703,7 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>43941</v>
       </c>
       <c r="G5">
@@ -599,24 +712,24 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>43942</v>
       </c>
       <c r="J5">
         <v>101</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>43942</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1001</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>43942</v>
       </c>
       <c r="D6" t="s">
@@ -625,7 +738,7 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>43942</v>
       </c>
       <c r="G6">
@@ -634,24 +747,24 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>43942</v>
       </c>
       <c r="J6">
         <v>101</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>43942</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1001</v>
       </c>
       <c r="B7">
         <v>101</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>44196</v>
       </c>
       <c r="D7" t="s">
@@ -660,33 +773,33 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>43942</v>
       </c>
       <c r="G7">
         <v>254</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1001</v>
       </c>
       <c r="B8">
         <v>103</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>44197</v>
       </c>
       <c r="D8" t="s">
@@ -695,33 +808,33 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>44196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>44197</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>44197</v>
       </c>
       <c r="J8">
         <v>101</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>44197</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1001</v>
       </c>
       <c r="B9">
         <v>101</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>44926</v>
       </c>
       <c r="D9" t="s">
@@ -730,33 +843,33 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>44197</v>
       </c>
       <c r="G9">
         <v>729</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>44926</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>44926</v>
       </c>
       <c r="J9">
         <v>103</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>44926</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1001</v>
       </c>
       <c r="B10">
         <v>104</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>44927</v>
       </c>
       <c r="D10" t="s">
@@ -765,30 +878,30 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>44926</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>44927</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>44927</v>
       </c>
       <c r="J10">
         <v>101</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>44927</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>42156</v>
       </c>
       <c r="D11" t="s">
@@ -806,18 +919,18 @@
       <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>42156</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1002</v>
       </c>
       <c r="B12">
         <v>201</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>43252</v>
       </c>
       <c r="D12" t="s">
@@ -826,33 +939,33 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>42156</v>
       </c>
       <c r="G12">
         <v>1096</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>43252</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>43252</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>43252</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1002</v>
       </c>
       <c r="B13">
         <v>202</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>43652</v>
       </c>
       <c r="D13" t="s">
@@ -861,33 +974,33 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>43252</v>
       </c>
       <c r="G13">
         <v>400</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>43652</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>43652</v>
       </c>
       <c r="J13">
         <v>201</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>43652</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1002</v>
       </c>
       <c r="B14">
         <v>202</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>43702</v>
       </c>
       <c r="D14" t="s">
@@ -896,33 +1009,33 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>43652</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>43702</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>43702</v>
       </c>
       <c r="J14">
         <v>202</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>43702</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1002</v>
       </c>
       <c r="B15">
         <v>203</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>43902</v>
       </c>
       <c r="D15" t="s">
@@ -931,33 +1044,33 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>43702</v>
       </c>
       <c r="G15">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>43902</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>43902</v>
       </c>
       <c r="J15">
         <v>202</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>43902</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1002</v>
       </c>
       <c r="B16">
         <v>201</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>44102</v>
       </c>
       <c r="D16" t="s">
@@ -966,7 +1079,7 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>43902</v>
       </c>
       <c r="G16">
@@ -975,21 +1088,21 @@
       <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>44102</v>
       </c>
       <c r="J16">
         <v>203</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>44102</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1003</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>43534</v>
       </c>
       <c r="D17" t="s">
@@ -1007,18 +1120,18 @@
       <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>43534</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1003</v>
       </c>
       <c r="B18">
         <v>301</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>44630</v>
       </c>
       <c r="D18" t="s">
@@ -1027,33 +1140,33 @@
       <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>43534</v>
       </c>
       <c r="G18">
         <v>1096</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>44630</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>44630</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>44630</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1003</v>
       </c>
       <c r="B19">
         <v>302</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>44630</v>
       </c>
       <c r="D19" t="s">
@@ -1062,33 +1175,33 @@
       <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>44630</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>44630</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>44630</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>44630</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1003</v>
       </c>
       <c r="B20">
         <v>303</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>44666</v>
       </c>
       <c r="D20" t="s">
@@ -1097,7 +1210,7 @@
       <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>44630</v>
       </c>
       <c r="G20">
@@ -1106,24 +1219,24 @@
       <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>44666</v>
       </c>
       <c r="J20">
         <v>302</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>44666</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1003</v>
       </c>
       <c r="B21">
         <v>304</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>44780</v>
       </c>
       <c r="D21" t="s">
@@ -1132,30 +1245,30 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>44666</v>
       </c>
       <c r="G21">
         <v>114</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>44780</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>44780</v>
       </c>
       <c r="J21">
         <v>303</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>44780</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1004</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>41275</v>
       </c>
       <c r="D22" t="s">
@@ -1173,18 +1286,18 @@
       <c r="J22" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>41275</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1004</v>
       </c>
       <c r="B23">
         <v>401</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>42370</v>
       </c>
       <c r="D23" t="s">
@@ -1193,33 +1306,33 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>41275</v>
       </c>
       <c r="G23">
         <v>1095</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>42370</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>42370</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>42370</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24">
         <v>402</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>45337</v>
       </c>
       <c r="D24" t="s">
@@ -1228,7 +1341,7 @@
       <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>42370</v>
       </c>
       <c r="G24">
@@ -1237,21 +1350,21 @@
       <c r="H24" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>45337</v>
       </c>
       <c r="J24">
         <v>401</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1005</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>43831</v>
       </c>
       <c r="D25" t="s">
@@ -1269,18 +1382,18 @@
       <c r="J25" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1005</v>
       </c>
       <c r="B26">
         <v>501</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>44927</v>
       </c>
       <c r="D26" t="s">
@@ -1289,33 +1402,33 @@
       <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>43831</v>
       </c>
       <c r="G26">
         <v>1096</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>44927</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>44927</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>44927</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1005</v>
       </c>
       <c r="B27">
         <v>501</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>44957</v>
       </c>
       <c r="D27" t="s">
@@ -1324,33 +1437,33 @@
       <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>44927</v>
       </c>
       <c r="G27">
         <v>30</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>44957</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>44957</v>
       </c>
       <c r="J27">
         <v>501</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>44957</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1005</v>
       </c>
       <c r="B28">
         <v>501</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>44987</v>
       </c>
       <c r="D28" t="s">
@@ -1359,7 +1472,7 @@
       <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>44957</v>
       </c>
       <c r="G28">
@@ -1368,24 +1481,24 @@
       <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>44957</v>
       </c>
       <c r="J28">
         <v>501</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>44987</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1005</v>
       </c>
       <c r="B29">
         <v>501</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>45017</v>
       </c>
       <c r="D29" t="s">
@@ -1394,7 +1507,7 @@
       <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>44987</v>
       </c>
       <c r="G29">
@@ -1403,24 +1516,24 @@
       <c r="H29" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>44957</v>
       </c>
       <c r="J29">
         <v>501</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>45017</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1005</v>
       </c>
       <c r="B30">
         <v>501</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>45047</v>
       </c>
       <c r="D30" t="s">
@@ -1429,7 +1542,7 @@
       <c r="E30" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>45017</v>
       </c>
       <c r="G30">
@@ -1438,24 +1551,24 @@
       <c r="H30" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>44957</v>
       </c>
       <c r="J30">
         <v>501</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>45047</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1005</v>
       </c>
       <c r="B31">
         <v>502</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>45077</v>
       </c>
       <c r="D31" t="s">
@@ -1464,7 +1577,7 @@
       <c r="E31" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>45047</v>
       </c>
       <c r="G31">
@@ -1473,24 +1586,24 @@
       <c r="H31" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>45077</v>
       </c>
       <c r="J31">
         <v>501</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>45077</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1005</v>
       </c>
       <c r="B32">
         <v>502</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>45107</v>
       </c>
       <c r="D32" t="s">
@@ -1499,7 +1612,7 @@
       <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>45077</v>
       </c>
       <c r="G32">
@@ -1508,24 +1621,24 @@
       <c r="H32" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>45077</v>
       </c>
       <c r="J32">
         <v>501</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>45107</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1005</v>
       </c>
       <c r="B33">
         <v>502</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>45137</v>
       </c>
       <c r="D33" t="s">
@@ -1534,7 +1647,7 @@
       <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>45107</v>
       </c>
       <c r="G33">
@@ -1543,24 +1656,24 @@
       <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>45077</v>
       </c>
       <c r="J33">
         <v>501</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>45137</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1005</v>
       </c>
       <c r="B34">
         <v>502</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>45167</v>
       </c>
       <c r="D34" t="s">
@@ -1569,7 +1682,7 @@
       <c r="E34" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>45137</v>
       </c>
       <c r="G34">
@@ -1578,24 +1691,24 @@
       <c r="H34" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>45077</v>
       </c>
       <c r="J34">
         <v>501</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>45167</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1005</v>
       </c>
       <c r="B35">
         <v>502</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>45197</v>
       </c>
       <c r="D35" t="s">
@@ -1604,7 +1717,7 @@
       <c r="E35" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>45167</v>
       </c>
       <c r="G35">
@@ -1613,21 +1726,21 @@
       <c r="H35" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>45077</v>
       </c>
       <c r="J35">
         <v>501</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>45197</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1006</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>44166</v>
       </c>
       <c r="D36" t="s">
@@ -1645,18 +1758,18 @@
       <c r="J36" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>44166</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1006</v>
       </c>
       <c r="B37">
         <v>601</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>45261</v>
       </c>
       <c r="D37" t="s">
@@ -1665,30 +1778,30 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>44166</v>
       </c>
       <c r="G37">
         <v>1095</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>45261</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>45261</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>45261</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1007</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>42495</v>
       </c>
       <c r="D38" t="s">
@@ -1706,18 +1819,18 @@
       <c r="J38" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>42495</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1007</v>
       </c>
       <c r="B39">
         <v>701</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>43590</v>
       </c>
       <c r="D39" t="s">
@@ -1726,33 +1839,33 @@
       <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>42495</v>
       </c>
       <c r="G39">
         <v>1095</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>43590</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>43590</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>43590</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1007</v>
       </c>
       <c r="B40">
         <v>701</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>43700</v>
       </c>
       <c r="D40" t="s">
@@ -1761,33 +1874,33 @@
       <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>43590</v>
       </c>
       <c r="G40">
         <v>110</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>43700</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>43700</v>
       </c>
       <c r="J40">
         <v>701</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>43700</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1007</v>
       </c>
       <c r="B41">
         <v>702</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>43955</v>
       </c>
       <c r="D41" t="s">
@@ -1796,33 +1909,33 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>43700</v>
       </c>
       <c r="G41">
         <v>255</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>43955</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>43955</v>
       </c>
       <c r="J41">
         <v>701</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>43955</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1007</v>
       </c>
       <c r="B42">
         <v>703</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>44685</v>
       </c>
       <c r="D42" t="s">
@@ -1831,30 +1944,30 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>43955</v>
       </c>
       <c r="G42">
         <v>730</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>44685</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>44685</v>
       </c>
       <c r="J42">
         <v>702</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>44685</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1008</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>43282</v>
       </c>
       <c r="D43" t="s">
@@ -1872,18 +1985,18 @@
       <c r="J43" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>43282</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1008</v>
       </c>
       <c r="B44">
         <v>802</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>44378</v>
       </c>
       <c r="D44" t="s">
@@ -1892,33 +2005,33 @@
       <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>43282</v>
       </c>
       <c r="G44">
         <v>1096</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>44378</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>44378</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>44378</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1008</v>
       </c>
       <c r="B45">
         <v>801</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>44378</v>
       </c>
       <c r="D45" t="s">
@@ -1927,33 +2040,33 @@
       <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>44378</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>44378</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>44378</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>44378</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1008</v>
       </c>
       <c r="B46">
         <v>803</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>44418</v>
       </c>
       <c r="D46" t="s">
@@ -1962,7 +2075,7 @@
       <c r="E46" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>44378</v>
       </c>
       <c r="G46">
@@ -1971,17 +2084,20 @@
       <c r="H46" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>44418</v>
       </c>
       <c r="J46">
         <v>801</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>44418</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>